--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Rozmiar [kB]</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>kimono</t>
+  </si>
+  <si>
+    <t>park</t>
   </si>
 </sst>
 </file>
@@ -2662,6 +2665,734 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="129315968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Kimono</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - PSNR test</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3214444592730988E-2"/>
+          <c:y val="0.11209920472209288"/>
+          <c:w val="0.76313425864139861"/>
+          <c:h val="0.75309591982820323"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mJPEG</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BR$3:$BR$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BS$3:$BS$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41.541932799655797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.492253684316303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.176578746157197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.163305164716299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.338618770660403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.071242226090597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.557785066772801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.193993258539699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.1408121114696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.384272083348797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>JPEG 3D DCT</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BT$3:$BT$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BU$3:$BU$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38.809812683425797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.8298671547509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.723781803995699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.039317408720201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.127951984825401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.024208993366102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.4453204342813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.9095884682439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.431974522885898</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.2010801063571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>JPEG 3D pred</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BV$3:$BV$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BW$3:$BW$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>36.937750316512499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.276651418534101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.0263561534884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.214620114977699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.013274973842599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.386808446823999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.3455891545231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.448944919329001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.630591748583299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.2588923659874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="121160832"/>
+        <c:axId val="120982912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="121160832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [kB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45121157524800931"/>
+              <c:y val="0.9382917097484027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120982912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="120982912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>PSNR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [kB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5536723163841809E-2"/>
+              <c:y val="3.5216778458248311E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121160832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>Park - PSNR test</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3214444592730988E-2"/>
+          <c:y val="0.11209920472209288"/>
+          <c:w val="0.76313425864139861"/>
+          <c:h val="0.75309591982820323"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mJPEG</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CD$3:$CD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CE$3:$CE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38.937296783236903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.547985060246603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.884903935689401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.679898176427102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.3585110233916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.392055087083897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.8482634983332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.925055697740099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.3259525706824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.663140959568199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>JPEG 3D DCT</c:v>
+          </c:tx>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>JPEG 3D pred</c:v>
+          </c:tx>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="120006528"/>
+        <c:axId val="120829824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="120006528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [kB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45121157524800931"/>
+              <c:y val="0.9382917097484027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120829824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="120829824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>PSNR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [kB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5536723163841809E-2"/>
+              <c:y val="3.5216778458248311E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120006528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2890,6 +3621,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Wykres 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3185,10 +3978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BY14"/>
+  <dimension ref="B1:CK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BU3" sqref="BU3"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="CG4" sqref="CG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3237,9 +4030,15 @@
     <col min="73" max="73" width="13.5546875" customWidth="1"/>
     <col min="74" max="74" width="16.6640625" customWidth="1"/>
     <col min="75" max="75" width="15.5546875" customWidth="1"/>
+    <col min="82" max="82" width="12" customWidth="1"/>
+    <col min="83" max="83" width="13.33203125" customWidth="1"/>
+    <col min="84" max="84" width="13.5546875" customWidth="1"/>
+    <col min="85" max="85" width="13.21875" customWidth="1"/>
+    <col min="86" max="86" width="13.6640625" customWidth="1"/>
+    <col min="87" max="87" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:89" x14ac:dyDescent="0.3">
       <c r="BF1" s="5" t="s">
         <v>36</v>
       </c>
@@ -3260,8 +4059,18 @@
       <c r="BW1" s="5"/>
       <c r="BX1" s="5"/>
       <c r="BY1" s="5"/>
+      <c r="CD1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
     </row>
-    <row r="2" spans="2:77" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:89" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -3386,8 +4195,28 @@
       </c>
       <c r="BX2" s="3"/>
       <c r="BY2" s="6"/>
+      <c r="CD2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
     </row>
-    <row r="3" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -3502,8 +4331,29 @@
       <c r="BT3">
         <v>1580</v>
       </c>
+      <c r="BU3">
+        <v>38.809812683425797</v>
+      </c>
+      <c r="BV3">
+        <v>1547</v>
+      </c>
+      <c r="BW3">
+        <v>36.937750316512499</v>
+      </c>
+      <c r="CD3">
+        <v>2730</v>
+      </c>
+      <c r="CE3">
+        <v>38.937296783236903</v>
+      </c>
+      <c r="CF3">
+        <v>2553</v>
+      </c>
+      <c r="CG3">
+        <v>38.373160875689699</v>
+      </c>
     </row>
-    <row r="4" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3615,8 +4465,26 @@
       <c r="BS4">
         <v>40.492253684316303</v>
       </c>
+      <c r="BT4">
+        <v>1239</v>
+      </c>
+      <c r="BU4">
+        <v>37.8298671547509</v>
+      </c>
+      <c r="BV4">
+        <v>1286</v>
+      </c>
+      <c r="BW4">
+        <v>35.276651418534101</v>
+      </c>
+      <c r="CD4">
+        <v>2090</v>
+      </c>
+      <c r="CE4">
+        <v>37.547985060246603</v>
+      </c>
     </row>
-    <row r="5" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -3716,8 +4584,26 @@
       <c r="BS5">
         <v>39.176578746157197</v>
       </c>
+      <c r="BT5">
+        <v>1041</v>
+      </c>
+      <c r="BU5">
+        <v>36.723781803995699</v>
+      </c>
+      <c r="BV5">
+        <v>958</v>
+      </c>
+      <c r="BW5">
+        <v>34.0263561534884</v>
+      </c>
+      <c r="CD5">
+        <v>1490</v>
+      </c>
+      <c r="CE5">
+        <v>35.884903935689401</v>
+      </c>
     </row>
-    <row r="6" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -3814,8 +4700,26 @@
       <c r="BS6">
         <v>38.163305164716299</v>
       </c>
+      <c r="BT6">
+        <v>804</v>
+      </c>
+      <c r="BU6">
+        <v>35.039317408720201</v>
+      </c>
+      <c r="BV6">
+        <v>835</v>
+      </c>
+      <c r="BW6">
+        <v>33.214620114977699</v>
+      </c>
+      <c r="CD6">
+        <v>1115</v>
+      </c>
+      <c r="CE6">
+        <v>34.679898176427102</v>
+      </c>
     </row>
-    <row r="7" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -3906,8 +4810,26 @@
       <c r="BS7">
         <v>37.338618770660403</v>
       </c>
+      <c r="BT7">
+        <v>663</v>
+      </c>
+      <c r="BU7">
+        <v>34.127951984825401</v>
+      </c>
+      <c r="BV7">
+        <v>731</v>
+      </c>
+      <c r="BW7">
+        <v>32.013274973842599</v>
+      </c>
+      <c r="CD7">
+        <v>908</v>
+      </c>
+      <c r="CE7">
+        <v>33.3585110233916</v>
+      </c>
     </row>
-    <row r="8" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -3986,8 +4908,26 @@
       <c r="BS8">
         <v>36.071242226090597</v>
       </c>
+      <c r="BT8">
+        <v>566</v>
+      </c>
+      <c r="BU8">
+        <v>33.024208993366102</v>
+      </c>
+      <c r="BV8">
+        <v>649</v>
+      </c>
+      <c r="BW8">
+        <v>31.386808446823999</v>
+      </c>
+      <c r="CD8">
+        <v>748</v>
+      </c>
+      <c r="CE8">
+        <v>32.392055087083897</v>
+      </c>
     </row>
-    <row r="9" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -4066,8 +5006,26 @@
       <c r="BS9">
         <v>35.557785066772801</v>
       </c>
+      <c r="BT9">
+        <v>494</v>
+      </c>
+      <c r="BU9">
+        <v>32.4453204342813</v>
+      </c>
+      <c r="BV9">
+        <v>534</v>
+      </c>
+      <c r="BW9">
+        <v>30.3455891545231</v>
+      </c>
+      <c r="CD9">
+        <v>673</v>
+      </c>
+      <c r="CE9">
+        <v>31.8482634983332</v>
+      </c>
     </row>
-    <row r="10" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>230</v>
       </c>
@@ -4134,8 +5092,26 @@
       <c r="BS10">
         <v>35.193993258539699</v>
       </c>
+      <c r="BT10">
+        <v>464</v>
+      </c>
+      <c r="BU10">
+        <v>31.9095884682439</v>
+      </c>
+      <c r="BV10">
+        <v>448</v>
+      </c>
+      <c r="BW10">
+        <v>29.448944919329001</v>
+      </c>
+      <c r="CD10">
+        <v>560</v>
+      </c>
+      <c r="CE10">
+        <v>30.925055697740099</v>
+      </c>
     </row>
-    <row r="11" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>178</v>
       </c>
@@ -4202,8 +5178,26 @@
       <c r="BS11">
         <v>34.1408121114696</v>
       </c>
+      <c r="BT11">
+        <v>413</v>
+      </c>
+      <c r="BU11">
+        <v>31.431974522885898</v>
+      </c>
+      <c r="BV11">
+        <v>381</v>
+      </c>
+      <c r="BW11">
+        <v>28.630591748583299</v>
+      </c>
+      <c r="CD11">
+        <v>494</v>
+      </c>
+      <c r="CE11">
+        <v>30.3259525706824</v>
+      </c>
     </row>
-    <row r="12" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>114</v>
       </c>
@@ -4270,8 +5264,26 @@
       <c r="BS12">
         <v>33.384272083348797</v>
       </c>
+      <c r="BT12">
+        <v>391</v>
+      </c>
+      <c r="BU12">
+        <v>31.2010801063571</v>
+      </c>
+      <c r="BV12">
+        <v>353</v>
+      </c>
+      <c r="BW12">
+        <v>28.2588923659874</v>
+      </c>
+      <c r="CD12">
+        <v>433</v>
+      </c>
+      <c r="CE12">
+        <v>29.663140959568199</v>
+      </c>
     </row>
-    <row r="13" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>47</v>
       </c>
@@ -4315,7 +5327,7 @@
         <v>27.808387101019001</v>
       </c>
     </row>
-    <row r="14" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:89" x14ac:dyDescent="0.3">
       <c r="AU14">
         <v>45</v>
       </c>
@@ -4330,9 +5342,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="BF1:BM1"/>
     <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="CD1:CK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -3263,14 +3263,83 @@
           <c:tx>
             <c:v>JPEG 3D DCT</c:v>
           </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CF$3:$CF$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Arkusz1!$CG$3:$CG$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38.373160875689699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.332048031179603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.399861097118396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.157575411813703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.438858606142503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.8161986466108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.988691879670199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.490331246984699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.777201271989899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.485622589203299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
@@ -3280,14 +3349,83 @@
           <c:tx>
             <c:v>JPEG 3D pred</c:v>
           </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CH$3:$CH$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Arkusz1!$CI$3:$CI$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>36.346435243844297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.978674787400003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.1940731084647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.576092597680201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.625048712613001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.991288441491299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.530418119537298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.886105596986202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.265140187767599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.933950861669199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
@@ -3980,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CG4" sqref="CG4"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CI14" sqref="CI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4352,6 +4490,12 @@
       <c r="CG3">
         <v>38.373160875689699</v>
       </c>
+      <c r="CH3">
+        <v>2809</v>
+      </c>
+      <c r="CI3">
+        <v>36.346435243844297</v>
+      </c>
     </row>
     <row r="4" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -4483,6 +4627,18 @@
       <c r="CE4">
         <v>37.547985060246603</v>
       </c>
+      <c r="CF4">
+        <v>1933</v>
+      </c>
+      <c r="CG4">
+        <v>36.332048031179603</v>
+      </c>
+      <c r="CH4">
+        <v>2008</v>
+      </c>
+      <c r="CI4">
+        <v>34.978674787400003</v>
+      </c>
     </row>
     <row r="5" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -4602,6 +4758,18 @@
       <c r="CE5">
         <v>35.884903935689401</v>
       </c>
+      <c r="CF5">
+        <v>1391</v>
+      </c>
+      <c r="CG5">
+        <v>35.399861097118396</v>
+      </c>
+      <c r="CH5">
+        <v>1303</v>
+      </c>
+      <c r="CI5">
+        <v>33.1940731084647</v>
+      </c>
     </row>
     <row r="6" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -4718,6 +4886,18 @@
       <c r="CE6">
         <v>34.679898176427102</v>
       </c>
+      <c r="CF6">
+        <v>1175</v>
+      </c>
+      <c r="CG6">
+        <v>34.157575411813703</v>
+      </c>
+      <c r="CH6">
+        <v>1114</v>
+      </c>
+      <c r="CI6">
+        <v>32.576092597680201</v>
+      </c>
     </row>
     <row r="7" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -4828,6 +5008,18 @@
       <c r="CE7">
         <v>33.3585110233916</v>
       </c>
+      <c r="CF7">
+        <v>977</v>
+      </c>
+      <c r="CG7">
+        <v>33.438858606142503</v>
+      </c>
+      <c r="CH7">
+        <v>871</v>
+      </c>
+      <c r="CI7">
+        <v>31.625048712613001</v>
+      </c>
     </row>
     <row r="8" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -4926,6 +5118,18 @@
       <c r="CE8">
         <v>32.392055087083897</v>
       </c>
+      <c r="CF8">
+        <v>779</v>
+      </c>
+      <c r="CG8">
+        <v>32.8161986466108</v>
+      </c>
+      <c r="CH8">
+        <v>728</v>
+      </c>
+      <c r="CI8">
+        <v>30.991288441491299</v>
+      </c>
     </row>
     <row r="9" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -5024,6 +5228,18 @@
       <c r="CE9">
         <v>31.8482634983332</v>
       </c>
+      <c r="CF9">
+        <v>671</v>
+      </c>
+      <c r="CG9">
+        <v>31.988691879670199</v>
+      </c>
+      <c r="CH9">
+        <v>642</v>
+      </c>
+      <c r="CI9">
+        <v>30.530418119537298</v>
+      </c>
     </row>
     <row r="10" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F10">
@@ -5110,6 +5326,18 @@
       <c r="CE10">
         <v>30.925055697740099</v>
       </c>
+      <c r="CF10">
+        <v>554</v>
+      </c>
+      <c r="CG10">
+        <v>31.490331246984699</v>
+      </c>
+      <c r="CH10">
+        <v>570</v>
+      </c>
+      <c r="CI10">
+        <v>29.886105596986202</v>
+      </c>
     </row>
     <row r="11" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F11">
@@ -5196,6 +5424,18 @@
       <c r="CE11">
         <v>30.3259525706824</v>
       </c>
+      <c r="CF11">
+        <v>483</v>
+      </c>
+      <c r="CG11">
+        <v>30.777201271989899</v>
+      </c>
+      <c r="CH11">
+        <v>464</v>
+      </c>
+      <c r="CI11">
+        <v>29.265140187767599</v>
+      </c>
     </row>
     <row r="12" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F12">
@@ -5281,6 +5521,18 @@
       </c>
       <c r="CE12">
         <v>29.663140959568199</v>
+      </c>
+      <c r="CF12">
+        <v>425</v>
+      </c>
+      <c r="CG12">
+        <v>30.485622589203299</v>
+      </c>
+      <c r="CH12">
+        <v>423</v>
+      </c>
+      <c r="CI12">
+        <v>28.933950861669199</v>
       </c>
     </row>
     <row r="13" spans="2:89" x14ac:dyDescent="0.3">

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Rozmiar [kB]</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rozmiar jpeg3d16x16 [kb] </t>
+  </si>
+  <si>
+    <t>PSNR jpeg3d16x16 [dB]</t>
   </si>
 </sst>
 </file>
@@ -3423,6 +3429,92 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>28.933950861669199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>JPEG 3D 16x16</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CJ$3:$CJ$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CK$3:$CK$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38.164855370618099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.089665975597597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.760220277956801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.349170433961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.261117181806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.221373969196598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.705168640350902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.6239234895097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.186227489783001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.7569683863351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4118,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CI14" sqref="CI14"/>
+    <sheetView tabSelected="1" topLeftCell="BZ19" workbookViewId="0">
+      <selection activeCell="CK14" sqref="CK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4174,6 +4266,8 @@
     <col min="85" max="85" width="13.21875" customWidth="1"/>
     <col min="86" max="86" width="13.6640625" customWidth="1"/>
     <col min="87" max="87" width="15.21875" customWidth="1"/>
+    <col min="88" max="88" width="15.88671875" customWidth="1"/>
+    <col min="89" max="89" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:89" x14ac:dyDescent="0.3">
@@ -4351,8 +4445,12 @@
       <c r="CI2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
+      <c r="CJ2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -4496,6 +4594,12 @@
       <c r="CI3">
         <v>36.346435243844297</v>
       </c>
+      <c r="CJ3">
+        <v>3050</v>
+      </c>
+      <c r="CK3">
+        <v>38.164855370618099</v>
+      </c>
     </row>
     <row r="4" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -4639,6 +4743,12 @@
       <c r="CI4">
         <v>34.978674787400003</v>
       </c>
+      <c r="CJ4">
+        <v>2000</v>
+      </c>
+      <c r="CK4">
+        <v>35.089665975597597</v>
+      </c>
     </row>
     <row r="5" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -4770,6 +4880,12 @@
       <c r="CI5">
         <v>33.1940731084647</v>
       </c>
+      <c r="CJ5">
+        <v>1350</v>
+      </c>
+      <c r="CK5">
+        <v>31.760220277956801</v>
+      </c>
     </row>
     <row r="6" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -4898,6 +5014,12 @@
       <c r="CI6">
         <v>32.576092597680201</v>
       </c>
+      <c r="CJ6">
+        <v>1118</v>
+      </c>
+      <c r="CK6">
+        <v>30.349170433961</v>
+      </c>
     </row>
     <row r="7" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -5020,6 +5142,12 @@
       <c r="CI7">
         <v>31.625048712613001</v>
       </c>
+      <c r="CJ7">
+        <v>980</v>
+      </c>
+      <c r="CK7">
+        <v>30.261117181806</v>
+      </c>
     </row>
     <row r="8" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -5130,6 +5258,12 @@
       <c r="CI8">
         <v>30.991288441491299</v>
       </c>
+      <c r="CJ8">
+        <v>725</v>
+      </c>
+      <c r="CK8">
+        <v>30.221373969196598</v>
+      </c>
     </row>
     <row r="9" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -5240,6 +5374,12 @@
       <c r="CI9">
         <v>30.530418119537298</v>
       </c>
+      <c r="CJ9">
+        <v>669</v>
+      </c>
+      <c r="CK9">
+        <v>29.705168640350902</v>
+      </c>
     </row>
     <row r="10" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F10">
@@ -5338,6 +5478,12 @@
       <c r="CI10">
         <v>29.886105596986202</v>
       </c>
+      <c r="CJ10">
+        <v>564</v>
+      </c>
+      <c r="CK10">
+        <v>29.6239234895097</v>
+      </c>
     </row>
     <row r="11" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F11">
@@ -5436,6 +5582,12 @@
       <c r="CI11">
         <v>29.265140187767599</v>
       </c>
+      <c r="CJ11">
+        <v>518</v>
+      </c>
+      <c r="CK11">
+        <v>29.186227489783001</v>
+      </c>
     </row>
     <row r="12" spans="2:89" x14ac:dyDescent="0.3">
       <c r="F12">
@@ -5533,6 +5685,12 @@
       </c>
       <c r="CI12">
         <v>28.933950861669199</v>
+      </c>
+      <c r="CJ12">
+        <v>417</v>
+      </c>
+      <c r="CK12">
+        <v>28.7569683863351</v>
       </c>
     </row>
     <row r="13" spans="2:89" x14ac:dyDescent="0.3">

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Rozmiar [kB]</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -197,9 +197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3004,6 +3001,92 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>JPEG 16x16</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BX$3:$BX$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BY$3:$BY$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40.139011055354899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.311202938741197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.096127880024298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.547679588435201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.370727250860597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.787403902149599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.927469989621798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.287810697221701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.9862730543514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.700368158561403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3439,7 +3522,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>JPEG 3D 16x16</c:v>
+            <c:v>JPEG 16x16</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -4210,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ19" workbookViewId="0">
-      <selection activeCell="CK14" sqref="CK14"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BM13" sqref="BM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4254,12 +4337,16 @@
     <col min="61" max="61" width="16.33203125" customWidth="1"/>
     <col min="62" max="62" width="14.109375" customWidth="1"/>
     <col min="63" max="63" width="15.21875" customWidth="1"/>
+    <col min="64" max="64" width="15.77734375" customWidth="1"/>
+    <col min="65" max="65" width="15.21875" customWidth="1"/>
     <col min="70" max="70" width="17.77734375" customWidth="1"/>
     <col min="71" max="71" width="14.44140625" customWidth="1"/>
     <col min="72" max="72" width="14.21875" customWidth="1"/>
     <col min="73" max="73" width="13.5546875" customWidth="1"/>
     <col min="74" max="74" width="16.6640625" customWidth="1"/>
     <col min="75" max="75" width="15.5546875" customWidth="1"/>
+    <col min="76" max="76" width="15.6640625" customWidth="1"/>
+    <col min="77" max="77" width="15.88671875" customWidth="1"/>
     <col min="82" max="82" width="12" customWidth="1"/>
     <col min="83" max="83" width="13.33203125" customWidth="1"/>
     <col min="84" max="84" width="13.5546875" customWidth="1"/>
@@ -4402,8 +4489,12 @@
       <c r="BK2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
+      <c r="BL2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="BN2" s="3"/>
       <c r="BO2" s="3"/>
       <c r="BP2" s="3"/>
@@ -4425,8 +4516,12 @@
       <c r="BW2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="6"/>
+      <c r="BX2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="CD2" s="3" t="s">
         <v>34</v>
       </c>
@@ -4558,6 +4653,12 @@
       <c r="BK3">
         <v>36.101169642518897</v>
       </c>
+      <c r="BL3">
+        <v>2940</v>
+      </c>
+      <c r="BM3">
+        <v>35.5460048807033</v>
+      </c>
       <c r="BR3">
         <v>1520</v>
       </c>
@@ -4575,6 +4676,12 @@
       </c>
       <c r="BW3">
         <v>36.937750316512499</v>
+      </c>
+      <c r="BX3">
+        <v>1580</v>
+      </c>
+      <c r="BY3">
+        <v>40.139011055354899</v>
       </c>
       <c r="CD3">
         <v>2730</v>
@@ -4707,6 +4814,12 @@
       <c r="BK4">
         <v>34.976214700163602</v>
       </c>
+      <c r="BL4">
+        <v>2030</v>
+      </c>
+      <c r="BM4">
+        <v>33.927546135159297</v>
+      </c>
       <c r="BR4">
         <v>1170</v>
       </c>
@@ -4724,6 +4837,12 @@
       </c>
       <c r="BW4">
         <v>35.276651418534101</v>
+      </c>
+      <c r="BX4">
+        <v>1112</v>
+      </c>
+      <c r="BY4">
+        <v>39.311202938741197</v>
       </c>
       <c r="CD4">
         <v>2090</v>
@@ -4844,6 +4963,12 @@
       <c r="BK5">
         <v>35.169640211141598</v>
       </c>
+      <c r="BL5">
+        <v>1790</v>
+      </c>
+      <c r="BM5">
+        <v>33.680233447298697</v>
+      </c>
       <c r="BR5">
         <v>901</v>
       </c>
@@ -4861,6 +4986,12 @@
       </c>
       <c r="BW5">
         <v>34.0263561534884</v>
+      </c>
+      <c r="BX5">
+        <v>913</v>
+      </c>
+      <c r="BY5">
+        <v>38.096127880024298</v>
       </c>
       <c r="CD5">
         <v>1490</v>
@@ -4978,6 +5109,12 @@
       <c r="BK6">
         <v>34.234421154798603</v>
       </c>
+      <c r="BL6">
+        <v>1490</v>
+      </c>
+      <c r="BM6">
+        <v>33.233896943492397</v>
+      </c>
       <c r="BR6">
         <v>740</v>
       </c>
@@ -4995,6 +5132,12 @@
       </c>
       <c r="BW6">
         <v>33.214620114977699</v>
+      </c>
+      <c r="BX6">
+        <v>754</v>
+      </c>
+      <c r="BY6">
+        <v>37.547679588435201</v>
       </c>
       <c r="CD6">
         <v>1115</v>
@@ -5106,6 +5249,12 @@
       <c r="BK7">
         <v>33.868073609163197</v>
       </c>
+      <c r="BL7">
+        <v>1270</v>
+      </c>
+      <c r="BM7">
+        <v>32.824229440541501</v>
+      </c>
       <c r="BR7">
         <v>650</v>
       </c>
@@ -5123,6 +5272,12 @@
       </c>
       <c r="BW7">
         <v>32.013274973842599</v>
+      </c>
+      <c r="BX7">
+        <v>685</v>
+      </c>
+      <c r="BY7">
+        <v>36.370727250860597</v>
       </c>
       <c r="CD7">
         <v>908</v>
@@ -5222,6 +5377,12 @@
       <c r="BK8">
         <v>33.681523306856803</v>
       </c>
+      <c r="BL8">
+        <v>1010</v>
+      </c>
+      <c r="BM8">
+        <v>32.006350696505301</v>
+      </c>
       <c r="BR8">
         <v>535</v>
       </c>
@@ -5239,6 +5400,12 @@
       </c>
       <c r="BW8">
         <v>31.386808446823999</v>
+      </c>
+      <c r="BX8">
+        <v>556</v>
+      </c>
+      <c r="BY8">
+        <v>35.787403902149599</v>
       </c>
       <c r="CD8">
         <v>748</v>
@@ -5338,6 +5505,12 @@
       <c r="BK9">
         <v>33.3670186556662</v>
       </c>
+      <c r="BL9">
+        <v>859</v>
+      </c>
+      <c r="BM9">
+        <v>31.2437209935174</v>
+      </c>
       <c r="BR9">
         <v>497</v>
       </c>
@@ -5355,6 +5528,12 @@
       </c>
       <c r="BW9">
         <v>30.3455891545231</v>
+      </c>
+      <c r="BX9">
+        <v>460</v>
+      </c>
+      <c r="BY9">
+        <v>34.927469989621798</v>
       </c>
       <c r="CD9">
         <v>673</v>
@@ -5442,6 +5621,12 @@
       <c r="BK10">
         <v>32.200925824298899</v>
       </c>
+      <c r="BL10">
+        <v>730</v>
+      </c>
+      <c r="BM10">
+        <v>30.464465995213899</v>
+      </c>
       <c r="BR10">
         <v>466</v>
       </c>
@@ -5459,6 +5644,12 @@
       </c>
       <c r="BW10">
         <v>29.448944919329001</v>
+      </c>
+      <c r="BX10">
+        <v>416</v>
+      </c>
+      <c r="BY10">
+        <v>34.287810697221701</v>
       </c>
       <c r="CD10">
         <v>560</v>
@@ -5546,6 +5737,12 @@
       <c r="BK11">
         <v>31.588317328272002</v>
       </c>
+      <c r="BL11">
+        <v>644</v>
+      </c>
+      <c r="BM11">
+        <v>29.905779331657499</v>
+      </c>
       <c r="BR11">
         <v>405</v>
       </c>
@@ -5563,6 +5760,12 @@
       </c>
       <c r="BW11">
         <v>28.630591748583299</v>
+      </c>
+      <c r="BX11">
+        <v>379</v>
+      </c>
+      <c r="BY11">
+        <v>33.9862730543514</v>
       </c>
       <c r="CD11">
         <v>494</v>
@@ -5650,6 +5853,12 @@
       <c r="BK12">
         <v>29.755271373748101</v>
       </c>
+      <c r="BL12">
+        <v>517</v>
+      </c>
+      <c r="BM12">
+        <v>28.871188765559701</v>
+      </c>
       <c r="BR12">
         <v>371</v>
       </c>
@@ -5667,6 +5876,12 @@
       </c>
       <c r="BW12">
         <v>28.2588923659874</v>
+      </c>
+      <c r="BX12">
+        <v>361</v>
+      </c>
+      <c r="BY12">
+        <v>33.700368158561403</v>
       </c>
       <c r="CD12">
         <v>433</v>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Rozmiar [kB]</t>
   </si>
@@ -152,6 +152,42 @@
   <si>
     <t>PSNR jpeg3d16x16 [dB]</t>
   </si>
+  <si>
+    <t>park - różne mjpegi</t>
+  </si>
+  <si>
+    <t>rozmiar q2 [kB]</t>
+  </si>
+  <si>
+    <t>PSNR q2 [dB]</t>
+  </si>
+  <si>
+    <t>rozmiar q31 [kB]</t>
+  </si>
+  <si>
+    <t>PSNR q31 [kB]</t>
+  </si>
+  <si>
+    <t>rozmiar q3 [kB]</t>
+  </si>
+  <si>
+    <t>PSNR q3 [dB]</t>
+  </si>
+  <si>
+    <t>rozmiar q5 [kB]</t>
+  </si>
+  <si>
+    <t>rozmiar q20 [kB]</t>
+  </si>
+  <si>
+    <t>rozmiar q11 [kB]</t>
+  </si>
+  <si>
+    <t>PSNR q5 [dB]</t>
+  </si>
+  <si>
+    <t>PSNR q11 [dB]</t>
+  </si>
 </sst>
 </file>
 
@@ -466,11 +502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114161536"/>
-        <c:axId val="114438144"/>
+        <c:axId val="99432704"/>
+        <c:axId val="99438976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114161536"/>
+        <c:axId val="99432704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,12 +547,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114438144"/>
+        <c:crossAx val="99438976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114438144"/>
+        <c:axId val="99438976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,13 +594,453 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114161536"/>
+        <c:crossAx val="99432704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>Park - PSNR test</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3214444592730988E-2"/>
+          <c:y val="0.11209920472209288"/>
+          <c:w val="0.76313425864139861"/>
+          <c:h val="0.75309591982820323"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>q2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CS$3:$CS$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CT$3:$CT$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39.1020278022376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.535210760136302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.821453377048002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.327608100873697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.399861097118396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.157575411813703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.438858606142503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.885204799639901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.830049556513799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.932863055528902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>q3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CU$3:$CU$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CV$3:$CV$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>36.751774067854598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.009335009221303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.2993075676725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.6700425474368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.509065521604597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.791998813794997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.1828765342891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.3515939975177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.622795074497201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.4072557282548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>q5</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CW$3:$CW$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CX$3:$CX$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>36.514360671152502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.475552360112403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.754372708182899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.857795953386798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.356196250960501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.079290969465703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.8890318593205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.8156675725754</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.448934124651998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.569917892404099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125252736"/>
+        <c:axId val="125268352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125252736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [kB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45121157524800931"/>
+              <c:y val="0.9382917097484027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125268352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125268352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>PSNR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [kB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5536723163841809E-2"/>
+              <c:y val="3.5216778458248311E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125252736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89238072000755075"/>
+          <c:y val="0.45487398039891475"/>
+          <c:w val="4.5876040238997426E-2"/>
+          <c:h val="0.15221307563827249"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -610,7 +1086,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -904,11 +1379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114468736"/>
-        <c:axId val="114483200"/>
+        <c:axId val="99473664"/>
+        <c:axId val="99479936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114468736"/>
+        <c:axId val="99473664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +1424,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114483200"/>
+        <c:crossAx val="99479936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114483200"/>
+        <c:axId val="99479936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="15"/>
@@ -997,7 +1472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114468736"/>
+        <c:crossAx val="99473664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1063,7 +1538,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1178,11 +1652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114316416"/>
-        <c:axId val="114318336"/>
+        <c:axId val="99313152"/>
+        <c:axId val="99315072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114316416"/>
+        <c:axId val="99313152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1224,12 +1698,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114318336"/>
+        <c:crossAx val="99315072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114318336"/>
+        <c:axId val="99315072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -1272,7 +1746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114316416"/>
+        <c:crossAx val="99313152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1334,7 +1808,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1520,11 +1993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114353280"/>
-        <c:axId val="114355200"/>
+        <c:axId val="99755520"/>
+        <c:axId val="99757440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114353280"/>
+        <c:axId val="99755520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1450"/>
@@ -1563,12 +2036,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114355200"/>
+        <c:crossAx val="99757440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114355200"/>
+        <c:axId val="99757440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -1611,14 +2084,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114353280"/>
+        <c:crossAx val="99755520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1668,7 +2140,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1783,11 +2254,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115575424"/>
-        <c:axId val="115585408"/>
+        <c:axId val="99781248"/>
+        <c:axId val="99791232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115575424"/>
+        <c:axId val="99781248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +2277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115585408"/>
+        <c:crossAx val="99791232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1814,7 +2285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115585408"/>
+        <c:axId val="99791232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,14 +2327,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115575424"/>
+        <c:crossAx val="99781248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1913,7 +2383,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2142,11 +2611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115942528"/>
-        <c:axId val="115944448"/>
+        <c:axId val="99810688"/>
+        <c:axId val="99841536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115942528"/>
+        <c:axId val="99810688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -2188,12 +2657,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115944448"/>
+        <c:crossAx val="99841536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115944448"/>
+        <c:axId val="99841536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -2236,14 +2705,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115942528"/>
+        <c:crossAx val="99810688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2289,7 +2757,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2566,6 +3033,92 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>JPEG 16x16</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BL$3:$BL$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$BM$3:$BM$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35.5460048807033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.927546135159297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.680233447298697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.233896943492397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.824229440541501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.006350696505301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.2437209935174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.464465995213899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.905779331657499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.871188765559701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2574,11 +3127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129315968"/>
-        <c:axId val="129292544"/>
+        <c:axId val="99881344"/>
+        <c:axId val="99883264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129315968"/>
+        <c:axId val="99881344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,12 +3172,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129292544"/>
+        <c:crossAx val="99883264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129292544"/>
+        <c:axId val="99883264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="26"/>
@@ -2667,14 +3220,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129315968"/>
+        <c:crossAx val="99881344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3095,11 +3647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121160832"/>
-        <c:axId val="120982912"/>
+        <c:axId val="99914880"/>
+        <c:axId val="99916800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121160832"/>
+        <c:axId val="99914880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,12 +3692,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120982912"/>
+        <c:crossAx val="99916800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120982912"/>
+        <c:axId val="99916800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3188,7 +3740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121160832"/>
+        <c:crossAx val="99914880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3612,11 +4164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120006528"/>
-        <c:axId val="120829824"/>
+        <c:axId val="111879680"/>
+        <c:axId val="111881600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120006528"/>
+        <c:axId val="111879680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3657,12 +4209,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120829824"/>
+        <c:crossAx val="111881600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120829824"/>
+        <c:axId val="111881600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3705,7 +4257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120006528"/>
+        <c:crossAx val="111879680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3917,8 +4469,8 @@
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -3996,6 +4548,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Wykres 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4291,10 +4875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CK14"/>
+  <dimension ref="B1:DD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BM13" sqref="BM13"/>
+    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="CZ5" sqref="CZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4355,9 +4939,16 @@
     <col min="87" max="87" width="15.21875" customWidth="1"/>
     <col min="88" max="88" width="15.88671875" customWidth="1"/>
     <col min="89" max="89" width="16" customWidth="1"/>
+    <col min="98" max="98" width="13.109375" customWidth="1"/>
+    <col min="100" max="100" width="13.33203125" customWidth="1"/>
+    <col min="101" max="101" width="10.5546875" customWidth="1"/>
+    <col min="102" max="102" width="12.88671875" customWidth="1"/>
+    <col min="103" max="103" width="9.44140625" customWidth="1"/>
+    <col min="104" max="104" width="15.77734375" customWidth="1"/>
+    <col min="108" max="108" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:108" x14ac:dyDescent="0.3">
       <c r="BF1" s="5" t="s">
         <v>36</v>
       </c>
@@ -4388,8 +4979,22 @@
       <c r="CI1" s="5"/>
       <c r="CJ1" s="5"/>
       <c r="CK1" s="5"/>
+      <c r="CS1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
     </row>
-    <row r="2" spans="2:89" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:108" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -4546,8 +5151,42 @@
       <c r="CK2" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="CS2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:108" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -4707,8 +5346,32 @@
       <c r="CK3">
         <v>38.164855370618099</v>
       </c>
+      <c r="CS3">
+        <v>3794</v>
+      </c>
+      <c r="CT3">
+        <v>39.1020278022376</v>
+      </c>
+      <c r="CU3">
+        <v>3348</v>
+      </c>
+      <c r="CV3">
+        <v>36.751774067854598</v>
+      </c>
+      <c r="CW3">
+        <v>3238</v>
+      </c>
+      <c r="CX3">
+        <v>36.514360671152502</v>
+      </c>
+      <c r="DC3">
+        <v>885</v>
+      </c>
+      <c r="DD3">
+        <v>29.598192401760102</v>
+      </c>
     </row>
-    <row r="4" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:108" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -4868,8 +5531,32 @@
       <c r="CK4">
         <v>35.089665975597597</v>
       </c>
+      <c r="CS4">
+        <v>2938</v>
+      </c>
+      <c r="CT4">
+        <v>37.535210760136302</v>
+      </c>
+      <c r="CU4">
+        <v>2648</v>
+      </c>
+      <c r="CV4">
+        <v>36.009335009221303</v>
+      </c>
+      <c r="CW4">
+        <v>2175</v>
+      </c>
+      <c r="CX4">
+        <v>35.475552360112403</v>
+      </c>
+      <c r="DC4">
+        <v>569</v>
+      </c>
+      <c r="DD4">
+        <v>29.202609007833701</v>
+      </c>
     </row>
-    <row r="5" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:108" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -5017,8 +5704,32 @@
       <c r="CK5">
         <v>31.760220277956801</v>
       </c>
+      <c r="CS5">
+        <v>2201</v>
+      </c>
+      <c r="CT5">
+        <v>36.821453377048002</v>
+      </c>
+      <c r="CU5">
+        <v>1983</v>
+      </c>
+      <c r="CV5">
+        <v>35.2993075676725</v>
+      </c>
+      <c r="CW5">
+        <v>1695</v>
+      </c>
+      <c r="CX5">
+        <v>34.754372708182899</v>
+      </c>
+      <c r="DC5">
+        <v>431</v>
+      </c>
+      <c r="DD5">
+        <v>28.8178235732702</v>
+      </c>
     </row>
-    <row r="6" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:108" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -5163,8 +5874,32 @@
       <c r="CK6">
         <v>30.349170433961</v>
       </c>
+      <c r="CS6">
+        <v>1707</v>
+      </c>
+      <c r="CT6">
+        <v>36.327608100873697</v>
+      </c>
+      <c r="CU6">
+        <v>1475</v>
+      </c>
+      <c r="CV6">
+        <v>34.6700425474368</v>
+      </c>
+      <c r="CW6">
+        <v>1273</v>
+      </c>
+      <c r="CX6">
+        <v>33.857795953386798</v>
+      </c>
+      <c r="DC6">
+        <v>331</v>
+      </c>
+      <c r="DD6">
+        <v>28.372162601842</v>
+      </c>
     </row>
-    <row r="7" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:108" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -5303,8 +6038,32 @@
       <c r="CK7">
         <v>30.261117181806</v>
       </c>
+      <c r="CS7">
+        <v>1391</v>
+      </c>
+      <c r="CT7">
+        <v>35.399861097118396</v>
+      </c>
+      <c r="CU7">
+        <v>1152</v>
+      </c>
+      <c r="CV7">
+        <v>34.509065521604597</v>
+      </c>
+      <c r="CW7">
+        <v>941</v>
+      </c>
+      <c r="CX7">
+        <v>33.356196250960501</v>
+      </c>
+      <c r="DC7">
+        <v>284</v>
+      </c>
+      <c r="DD7">
+        <v>28.111407138664301</v>
+      </c>
     </row>
-    <row r="8" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:108" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -5431,8 +6190,32 @@
       <c r="CK8">
         <v>30.221373969196598</v>
       </c>
+      <c r="CS8">
+        <v>1175</v>
+      </c>
+      <c r="CT8">
+        <v>34.157575411813703</v>
+      </c>
+      <c r="CU8">
+        <v>935</v>
+      </c>
+      <c r="CV8">
+        <v>33.791998813794997</v>
+      </c>
+      <c r="CW8">
+        <v>736</v>
+      </c>
+      <c r="CX8">
+        <v>33.079290969465703</v>
+      </c>
+      <c r="DC8">
+        <v>223</v>
+      </c>
+      <c r="DD8">
+        <v>27.981132523716301</v>
+      </c>
     </row>
-    <row r="9" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:108" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -5559,8 +6342,32 @@
       <c r="CK9">
         <v>29.705168640350902</v>
       </c>
+      <c r="CS9">
+        <v>977</v>
+      </c>
+      <c r="CT9">
+        <v>33.438858606142503</v>
+      </c>
+      <c r="CU9">
+        <v>677</v>
+      </c>
+      <c r="CV9">
+        <v>32.1828765342891</v>
+      </c>
+      <c r="CW9">
+        <v>540</v>
+      </c>
+      <c r="CX9">
+        <v>31.8890318593205</v>
+      </c>
+      <c r="DC9">
+        <v>186</v>
+      </c>
+      <c r="DD9">
+        <v>27.9511228870224</v>
+      </c>
     </row>
-    <row r="10" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:108" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>230</v>
       </c>
@@ -5675,8 +6482,32 @@
       <c r="CK10">
         <v>29.6239234895097</v>
       </c>
+      <c r="CS10">
+        <v>619</v>
+      </c>
+      <c r="CT10">
+        <v>31.885204799639901</v>
+      </c>
+      <c r="CU10">
+        <v>473</v>
+      </c>
+      <c r="CV10">
+        <v>31.3515939975177</v>
+      </c>
+      <c r="CW10">
+        <v>417</v>
+      </c>
+      <c r="CX10">
+        <v>30.8156675725754</v>
+      </c>
+      <c r="DC10">
+        <v>136</v>
+      </c>
+      <c r="DD10">
+        <v>26.673037904035599</v>
+      </c>
     </row>
-    <row r="11" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:108" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>178</v>
       </c>
@@ -5791,8 +6622,32 @@
       <c r="CK11">
         <v>29.186227489783001</v>
       </c>
+      <c r="CS11">
+        <v>496</v>
+      </c>
+      <c r="CT11">
+        <v>30.830049556513799</v>
+      </c>
+      <c r="CU11">
+        <v>380</v>
+      </c>
+      <c r="CV11">
+        <v>30.622795074497201</v>
+      </c>
+      <c r="CW11">
+        <v>318</v>
+      </c>
+      <c r="CX11">
+        <v>30.448934124651998</v>
+      </c>
+      <c r="DC11">
+        <v>113</v>
+      </c>
+      <c r="DD11">
+        <v>26.485051357645201</v>
+      </c>
     </row>
-    <row r="12" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:108" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>114</v>
       </c>
@@ -5907,8 +6762,32 @@
       <c r="CK12">
         <v>28.7569683863351</v>
       </c>
+      <c r="CS12">
+        <v>367</v>
+      </c>
+      <c r="CT12">
+        <v>29.932863055528902</v>
+      </c>
+      <c r="CU12">
+        <v>264</v>
+      </c>
+      <c r="CV12">
+        <v>29.4072557282548</v>
+      </c>
+      <c r="CW12">
+        <v>187</v>
+      </c>
+      <c r="CX12">
+        <v>28.569917892404099</v>
+      </c>
+      <c r="DC12">
+        <v>81</v>
+      </c>
+      <c r="DD12">
+        <v>25.661976273049302</v>
+      </c>
     </row>
-    <row r="13" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:108" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>47</v>
       </c>
@@ -5952,7 +6831,7 @@
         <v>27.808387101019001</v>
       </c>
     </row>
-    <row r="14" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:108" x14ac:dyDescent="0.3">
       <c r="AU14">
         <v>45</v>
       </c>
@@ -5967,10 +6846,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="BF1:BM1"/>
     <mergeCell ref="BR1:BY1"/>
     <mergeCell ref="CD1:CK1"/>
+    <mergeCell ref="CS1:DD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Rozmiar [kB]</t>
   </si>
@@ -188,6 +188,9 @@
   <si>
     <t>PSNR q11 [dB]</t>
   </si>
+  <si>
+    <t>PSNR q20 [dB]</t>
+  </si>
 </sst>
 </file>
 
@@ -640,7 +643,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t>Park - PSNR test</a:t>
+              <a:t>Park - JPEG 3D 8x8x8 DCT PSNR test</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -917,6 +920,264 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>28.569917892404099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>q11</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CY$3:$CY$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CZ$3:$CZ$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33.130711212098497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.446414932454097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.8949122756738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.186046989797401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.819988922746301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.617593781289401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.050316836392501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.997710025904201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.637836082057699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.652102046228201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>q20</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$DA$3:$DA$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$DB$3:$DB$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.951798029162799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.4491859814379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.006775604129999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.956241074422898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.4484278617069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.9627258847867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.898039846461899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.6272033500981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.277150914197701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.154566213001399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>q31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$DC$3:$DC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$DD$3:$DD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.598192401760102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.202609007833701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.8178235732702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.372162601842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.111407138664301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.981132523716301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.9511228870224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.673037904035599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.485051357645201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.661976273049302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,8 +1298,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.89238072000755075"/>
           <c:y val="0.45487398039891475"/>
-          <c:w val="4.5876040238997426E-2"/>
-          <c:h val="0.15221307563827249"/>
+          <c:w val="5.0038623644266686E-2"/>
+          <c:h val="0.30442615127654499"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4556,13 +4817,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>95</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>111</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -4877,8 +5138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
-      <selection activeCell="CZ5" sqref="CZ5"/>
+    <sheetView tabSelected="1" topLeftCell="CO19" workbookViewId="0">
+      <selection activeCell="DA14" sqref="DA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4945,6 +5206,7 @@
     <col min="102" max="102" width="12.88671875" customWidth="1"/>
     <col min="103" max="103" width="9.44140625" customWidth="1"/>
     <col min="104" max="104" width="15.77734375" customWidth="1"/>
+    <col min="106" max="106" width="14.109375" customWidth="1"/>
     <col min="108" max="108" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5178,7 +5440,9 @@
       <c r="DA2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="DB2" s="3"/>
+      <c r="DB2" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="DC2" s="3" t="s">
         <v>48</v>
       </c>
@@ -5364,6 +5628,18 @@
       <c r="CX3">
         <v>36.514360671152502</v>
       </c>
+      <c r="CY3">
+        <v>1745</v>
+      </c>
+      <c r="CZ3">
+        <v>33.130711212098497</v>
+      </c>
+      <c r="DA3">
+        <v>1141</v>
+      </c>
+      <c r="DB3">
+        <v>30.951798029162799</v>
+      </c>
       <c r="DC3">
         <v>885</v>
       </c>
@@ -5549,6 +5825,18 @@
       <c r="CX4">
         <v>35.475552360112403</v>
       </c>
+      <c r="CY4">
+        <v>1139</v>
+      </c>
+      <c r="CZ4">
+        <v>32.446414932454097</v>
+      </c>
+      <c r="DA4">
+        <v>733</v>
+      </c>
+      <c r="DB4">
+        <v>30.4491859814379</v>
+      </c>
       <c r="DC4">
         <v>569</v>
       </c>
@@ -5722,6 +6010,18 @@
       <c r="CX5">
         <v>34.754372708182899</v>
       </c>
+      <c r="CY5">
+        <v>867</v>
+      </c>
+      <c r="CZ5">
+        <v>31.8949122756738</v>
+      </c>
+      <c r="DA5">
+        <v>553</v>
+      </c>
+      <c r="DB5">
+        <v>30.006775604129999</v>
+      </c>
       <c r="DC5">
         <v>431</v>
       </c>
@@ -5892,6 +6192,18 @@
       <c r="CX6">
         <v>33.857795953386798</v>
       </c>
+      <c r="CY6">
+        <v>642</v>
+      </c>
+      <c r="CZ6">
+        <v>31.186046989797401</v>
+      </c>
+      <c r="DA6">
+        <v>414</v>
+      </c>
+      <c r="DB6">
+        <v>29.956241074422898</v>
+      </c>
       <c r="DC6">
         <v>331</v>
       </c>
@@ -6056,6 +6368,18 @@
       <c r="CX7">
         <v>33.356196250960501</v>
       </c>
+      <c r="CY7">
+        <v>466</v>
+      </c>
+      <c r="CZ7">
+        <v>30.819988922746301</v>
+      </c>
+      <c r="DA7">
+        <v>354</v>
+      </c>
+      <c r="DB7">
+        <v>29.4484278617069</v>
+      </c>
       <c r="DC7">
         <v>284</v>
       </c>
@@ -6208,6 +6532,18 @@
       <c r="CX8">
         <v>33.079290969465703</v>
       </c>
+      <c r="CY8">
+        <v>363</v>
+      </c>
+      <c r="CZ8">
+        <v>30.617593781289401</v>
+      </c>
+      <c r="DA8">
+        <v>271</v>
+      </c>
+      <c r="DB8">
+        <v>28.9627258847867</v>
+      </c>
       <c r="DC8">
         <v>223</v>
       </c>
@@ -6360,6 +6696,18 @@
       <c r="CX9">
         <v>31.8890318593205</v>
       </c>
+      <c r="CY9">
+        <v>286</v>
+      </c>
+      <c r="CZ9">
+        <v>30.050316836392501</v>
+      </c>
+      <c r="DA9">
+        <v>219</v>
+      </c>
+      <c r="DB9">
+        <v>28.898039846461899</v>
+      </c>
       <c r="DC9">
         <v>186</v>
       </c>
@@ -6500,6 +6848,18 @@
       <c r="CX10">
         <v>30.8156675725754</v>
       </c>
+      <c r="CY10">
+        <v>237</v>
+      </c>
+      <c r="CZ10">
+        <v>28.997710025904201</v>
+      </c>
+      <c r="DA10">
+        <v>167</v>
+      </c>
+      <c r="DB10">
+        <v>27.6272033500981</v>
+      </c>
       <c r="DC10">
         <v>136</v>
       </c>
@@ -6640,6 +7000,18 @@
       <c r="CX11">
         <v>30.448934124651998</v>
       </c>
+      <c r="CY11">
+        <v>195</v>
+      </c>
+      <c r="CZ11">
+        <v>28.637836082057699</v>
+      </c>
+      <c r="DA11">
+        <v>123</v>
+      </c>
+      <c r="DB11">
+        <v>27.277150914197701</v>
+      </c>
       <c r="DC11">
         <v>113</v>
       </c>
@@ -6779,6 +7151,18 @@
       </c>
       <c r="CX12">
         <v>28.569917892404099</v>
+      </c>
+      <c r="CY12">
+        <v>121</v>
+      </c>
+      <c r="CZ12">
+        <v>27.652102046228201</v>
+      </c>
+      <c r="DA12">
+        <v>90</v>
+      </c>
+      <c r="DB12">
+        <v>26.154566213001399</v>
       </c>
       <c r="DC12">
         <v>81</v>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Rozmiar [kB]</t>
   </si>
@@ -505,11 +505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99432704"/>
-        <c:axId val="99438976"/>
+        <c:axId val="73340800"/>
+        <c:axId val="73351168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99432704"/>
+        <c:axId val="73340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,12 +550,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99438976"/>
+        <c:crossAx val="73351168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99438976"/>
+        <c:axId val="73351168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,7 +597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99432704"/>
+        <c:crossAx val="73340800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -649,7 +649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1184,6 +1183,321 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>mJPEG</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q2</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q3</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q5</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q8</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q11</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q14</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q18</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q20</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q25</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="pl-PL"/>
+                      <a:t>q31</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CD$3:$CD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$CE$3:$CE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38.937296783236903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.547985060246603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.884903935689401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.679898176427102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.3585110233916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.392055087083897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.8482634983332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.925055697740099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.3259525706824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.663140959568199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1192,11 +1506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125252736"/>
-        <c:axId val="125268352"/>
+        <c:axId val="100029952"/>
+        <c:axId val="100031872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125252736"/>
+        <c:axId val="100029952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,12 +1551,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125268352"/>
+        <c:crossAx val="100031872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125268352"/>
+        <c:axId val="100031872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -1285,7 +1599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125252736"/>
+        <c:crossAx val="100029952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1298,8 +1612,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.89238072000755075"/>
           <c:y val="0.45487398039891475"/>
-          <c:w val="5.0038623644266686E-2"/>
-          <c:h val="0.30442615127654499"/>
+          <c:w val="6.3426012720632141E-2"/>
+          <c:h val="0.35516384315596916"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1640,11 +1954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99473664"/>
-        <c:axId val="99479936"/>
+        <c:axId val="73389952"/>
+        <c:axId val="73396224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99473664"/>
+        <c:axId val="73389952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,12 +1999,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99479936"/>
+        <c:crossAx val="73396224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99479936"/>
+        <c:axId val="73396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="15"/>
@@ -1733,7 +2047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99473664"/>
+        <c:crossAx val="73389952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1913,11 +2227,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99313152"/>
-        <c:axId val="99315072"/>
+        <c:axId val="99185792"/>
+        <c:axId val="99187712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99313152"/>
+        <c:axId val="99185792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1959,12 +2273,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99315072"/>
+        <c:crossAx val="99187712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99315072"/>
+        <c:axId val="99187712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -2007,7 +2321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99313152"/>
+        <c:crossAx val="99185792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2063,12 +2377,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t>mJPEG vs JPEG 3D</a:t>
+              <a:t>PSNR test - sekwencja z monitoringu miejskiego</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2091,55 +2406,82 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>mJPEG</c:v>
+            <c:v>M-JPEG</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$X$3:$X$7</c:f>
+              <c:f>Arkusz1!$X$3:$X$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1320</c:v>
+                  <c:v>1340</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1119</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>642</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$Y$3:$Y$7</c:f>
+              <c:f>Arkusz1!$Y$3:$Y$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.2381686190095</c:v>
+                  <c:v>47.075568673179703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.926461123508403</c:v>
+                  <c:v>44.646306452462397</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32.609457715565902</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>31.121507949594999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>30.681633596477099</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>30.478436048675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.8994358575966</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>28.715653102193901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.858551105318501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.3694326377069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,55 +2492,82 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>JPEG 3D (DCT 8x8x8)</c:v>
+            <c:v>JPEG 3D DCT</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$Z$3:$Z$7</c:f>
+              <c:f>Arkusz1!$Z$3:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1062</c:v>
+                  <c:v>1195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>859</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>657</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>462</c:v>
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$AA$3:$AA$7</c:f>
+              <c:f>Arkusz1!$AA$3:$AA$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43.816025988678298</c:v>
+                  <c:v>47.5748409262522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.770637845073502</c:v>
+                  <c:v>45.315010671110301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.760680896684804</c:v>
+                  <c:v>42.721522016819499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.074658231195201</c:v>
+                  <c:v>41.0719172824477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.041548086355299</c:v>
+                  <c:v>39.8645423615867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.670348891768299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.570443415505999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.6041069057529</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.582650049989397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.422915291138203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,37 +2578,168 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>JPEG 3D (prediction)</c:v>
+            <c:v>JPEG 3D pred</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$AB$3:$AB$4</c:f>
+              <c:f>Arkusz1!$AB$3:$AB$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>460</c:v>
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$AC$3:$AC$4</c:f>
+              <c:f>Arkusz1!$AC$3:$AC$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45.452941385125001</c:v>
+                  <c:v>47.352941385125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.016775584223602</c:v>
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.316775584223599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>JPEG 16x16</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AD$3:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AE$3:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35.6877951807394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.871022675323601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.3249549362618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.427322536678499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.708111662282299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.569874710336698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.6707526086795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.967524151806401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.134414776850502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.931053774460601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,15 +2754,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99755520"/>
-        <c:axId val="99757440"/>
+        <c:axId val="99302784"/>
+        <c:axId val="99304960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99755520"/>
+        <c:axId val="99302784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1450"/>
-          <c:min val="350"/>
+          <c:max val="1550"/>
+          <c:min val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2297,12 +2797,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99757440"/>
+        <c:crossAx val="99304960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99757440"/>
+        <c:axId val="99304960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -2345,13 +2845,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99755520"/>
+        <c:crossAx val="99302784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2401,6 +2902,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2515,11 +3017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99781248"/>
-        <c:axId val="99791232"/>
+        <c:axId val="99319168"/>
+        <c:axId val="99341440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99781248"/>
+        <c:axId val="99319168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +3040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99791232"/>
+        <c:crossAx val="99341440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2546,7 +3048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99791232"/>
+        <c:axId val="99341440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,13 +3090,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99781248"/>
+        <c:crossAx val="99319168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2872,11 +3375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99810688"/>
-        <c:axId val="99841536"/>
+        <c:axId val="99383168"/>
+        <c:axId val="99393536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99810688"/>
+        <c:axId val="99383168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -2918,12 +3421,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99841536"/>
+        <c:crossAx val="99393536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99841536"/>
+        <c:axId val="99393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -2966,7 +3469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99810688"/>
+        <c:crossAx val="99383168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3388,11 +3891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99881344"/>
-        <c:axId val="99883264"/>
+        <c:axId val="99420800"/>
+        <c:axId val="99427072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99881344"/>
+        <c:axId val="99420800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,12 +3936,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99883264"/>
+        <c:crossAx val="99427072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99883264"/>
+        <c:axId val="99427072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="26"/>
@@ -3481,7 +3984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99881344"/>
+        <c:crossAx val="99420800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3537,7 +4040,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3908,11 +4410,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99914880"/>
-        <c:axId val="99916800"/>
+        <c:axId val="99456896"/>
+        <c:axId val="99467264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99914880"/>
+        <c:axId val="99456896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3953,12 +4455,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99916800"/>
+        <c:crossAx val="99467264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99916800"/>
+        <c:axId val="99467264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -4001,14 +4503,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99914880"/>
+        <c:crossAx val="99456896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4054,7 +4555,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4077,7 +4577,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>mJPEG</c:v>
+            <c:v>M-JPEG</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -4425,11 +4925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111879680"/>
-        <c:axId val="111881600"/>
+        <c:axId val="99624832"/>
+        <c:axId val="99635200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111879680"/>
+        <c:axId val="99624832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,12 +4970,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111881600"/>
+        <c:crossAx val="99635200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111881600"/>
+        <c:axId val="99635200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -4498,7 +4998,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> [kB]</a:t>
+                  <a:t> [dB]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4518,14 +5018,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111879680"/>
+        <c:crossAx val="99624832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4635,15 +5134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5138,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO19" workbookViewId="0">
-      <selection activeCell="DA14" sqref="DA14"/>
+    <sheetView tabSelected="1" topLeftCell="V15" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5168,6 +5667,8 @@
     <col min="27" max="27" width="24" customWidth="1"/>
     <col min="28" max="28" width="18.77734375" customWidth="1"/>
     <col min="29" max="29" width="17.21875" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="15.109375" customWidth="1"/>
     <col min="36" max="36" width="16.109375" customWidth="1"/>
     <col min="37" max="37" width="15.109375" customWidth="1"/>
     <col min="38" max="38" width="18.109375" customWidth="1"/>
@@ -5320,6 +5821,12 @@
       <c r="AC2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="AD2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="AK2" t="s">
         <v>23</v>
       </c>
@@ -5500,22 +6007,28 @@
         <v>30.627496294201901</v>
       </c>
       <c r="X3">
-        <v>1320</v>
+        <v>1340</v>
       </c>
       <c r="Y3">
-        <v>42.2381686190095</v>
+        <v>47.075568673179703</v>
       </c>
       <c r="Z3">
         <v>1343</v>
       </c>
       <c r="AA3">
-        <v>43.816025988678298</v>
+        <v>47.5748409262522</v>
       </c>
       <c r="AB3">
         <v>1343</v>
       </c>
       <c r="AC3">
-        <v>45.452941385125001</v>
+        <v>47.352941385125</v>
+      </c>
+      <c r="AD3">
+        <v>1270</v>
+      </c>
+      <c r="AE3">
+        <v>35.6877951807394</v>
       </c>
       <c r="AJ3" t="s">
         <v>25</v>
@@ -5697,22 +6210,28 @@
         <v>27.829765871844799</v>
       </c>
       <c r="X4">
-        <v>1119</v>
+        <v>1210</v>
       </c>
       <c r="Y4">
-        <v>35.926461123508403</v>
+        <v>44.646306452462397</v>
       </c>
       <c r="Z4">
-        <v>1062</v>
+        <v>1195</v>
       </c>
       <c r="AA4">
-        <v>43.770637845073502</v>
+        <v>45.315010671110301</v>
       </c>
       <c r="AB4">
-        <v>460</v>
+        <v>1190</v>
       </c>
       <c r="AC4">
-        <v>39.016775584223602</v>
+        <v>45.9</v>
+      </c>
+      <c r="AD4">
+        <v>1008</v>
+      </c>
+      <c r="AE4">
+        <v>33.871022675323601</v>
       </c>
       <c r="AJ4" t="s">
         <v>26</v>
@@ -5894,10 +6413,22 @@
         <v>32.609457715565902</v>
       </c>
       <c r="Z5">
-        <v>859</v>
+        <v>978</v>
       </c>
       <c r="AA5">
-        <v>39.760680896684804</v>
+        <v>42.721522016819499</v>
+      </c>
+      <c r="AB5">
+        <v>960</v>
+      </c>
+      <c r="AC5">
+        <v>44</v>
+      </c>
+      <c r="AD5">
+        <v>856</v>
+      </c>
+      <c r="AE5">
+        <v>31.3249549362618</v>
       </c>
       <c r="AJ5" t="s">
         <v>27</v>
@@ -6073,22 +6604,28 @@
         <v>34.378048146042801</v>
       </c>
       <c r="X6">
-        <v>642</v>
+        <v>817</v>
       </c>
       <c r="Y6">
-        <v>30.681633596477099</v>
+        <v>31.121507949594999</v>
       </c>
       <c r="Z6">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="AA6">
-        <v>38.074658231195201</v>
+        <v>41.0719172824477</v>
       </c>
       <c r="AB6">
-        <v>1610</v>
+        <v>750</v>
       </c>
       <c r="AC6">
-        <v>47.35</v>
+        <v>42.6</v>
+      </c>
+      <c r="AD6">
+        <v>767</v>
+      </c>
+      <c r="AE6">
+        <v>30.427322536678499</v>
       </c>
       <c r="AU6">
         <v>667</v>
@@ -6249,22 +6786,28 @@
         <v>33.2150182706443</v>
       </c>
       <c r="X7">
-        <v>488</v>
+        <v>642</v>
       </c>
       <c r="Y7">
-        <v>28.715653102193901</v>
+        <v>30.681633596477099</v>
       </c>
       <c r="Z7">
-        <v>462</v>
+        <v>643</v>
       </c>
       <c r="AA7">
-        <v>37.041548086355299</v>
+        <v>39.8645423615867</v>
       </c>
       <c r="AB7">
-        <v>304</v>
+        <v>630</v>
       </c>
       <c r="AC7">
-        <v>38.31</v>
+        <v>41.7</v>
+      </c>
+      <c r="AD7">
+        <v>670</v>
+      </c>
+      <c r="AE7">
+        <v>29.708111662282299</v>
       </c>
       <c r="AU7">
         <v>580</v>
@@ -6424,11 +6967,29 @@
       <c r="P8">
         <v>32.504581580804597</v>
       </c>
+      <c r="X8">
+        <v>596</v>
+      </c>
+      <c r="Y8">
+        <v>30.478436048675</v>
+      </c>
+      <c r="Z8">
+        <v>544</v>
+      </c>
+      <c r="AA8">
+        <v>39.670348891768299</v>
+      </c>
       <c r="AB8">
-        <v>237</v>
+        <v>540</v>
       </c>
       <c r="AC8">
-        <v>38.01</v>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AD8">
+        <v>575</v>
+      </c>
+      <c r="AE8">
+        <v>28.569874710336698</v>
       </c>
       <c r="AU8">
         <v>514</v>
@@ -6588,11 +7149,29 @@
       <c r="P9">
         <v>31.571577601217701</v>
       </c>
+      <c r="X9">
+        <v>562</v>
+      </c>
+      <c r="Y9">
+        <v>29.8994358575966</v>
+      </c>
+      <c r="Z9">
+        <v>528</v>
+      </c>
+      <c r="AA9">
+        <v>39.570443415505999</v>
+      </c>
       <c r="AB9">
-        <v>231</v>
+        <v>510</v>
       </c>
       <c r="AC9">
-        <v>37.968000000000004</v>
+        <v>40.5</v>
+      </c>
+      <c r="AD9">
+        <v>486</v>
+      </c>
+      <c r="AE9">
+        <v>27.6707526086795</v>
       </c>
       <c r="AU9">
         <v>425</v>
@@ -6746,6 +7325,30 @@
       <c r="P10">
         <v>30.791677325961501</v>
       </c>
+      <c r="X10">
+        <v>488</v>
+      </c>
+      <c r="Y10">
+        <v>28.715653102193901</v>
+      </c>
+      <c r="Z10">
+        <v>434</v>
+      </c>
+      <c r="AA10">
+        <v>38.6041069057529</v>
+      </c>
+      <c r="AB10">
+        <v>420</v>
+      </c>
+      <c r="AC10">
+        <v>39.5</v>
+      </c>
+      <c r="AD10">
+        <v>432</v>
+      </c>
+      <c r="AE10">
+        <v>26.967524151806401</v>
+      </c>
       <c r="AU10">
         <v>327</v>
       </c>
@@ -6898,6 +7501,30 @@
       <c r="P11">
         <v>29.716575379691601</v>
       </c>
+      <c r="X11">
+        <v>401</v>
+      </c>
+      <c r="Y11">
+        <v>27.858551105318501</v>
+      </c>
+      <c r="Z11">
+        <v>418</v>
+      </c>
+      <c r="AA11">
+        <v>38.582650049989397</v>
+      </c>
+      <c r="AB11">
+        <v>380</v>
+      </c>
+      <c r="AC11">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AD11">
+        <v>377</v>
+      </c>
+      <c r="AE11">
+        <v>26.134414776850502</v>
+      </c>
       <c r="AU11">
         <v>263</v>
       </c>
@@ -7049,6 +7676,30 @@
       </c>
       <c r="P12">
         <v>26.4976542573385</v>
+      </c>
+      <c r="X12">
+        <v>313</v>
+      </c>
+      <c r="Y12">
+        <v>26.3694326377069</v>
+      </c>
+      <c r="Z12">
+        <v>382</v>
+      </c>
+      <c r="AA12">
+        <v>38.422915291138203</v>
+      </c>
+      <c r="AB12">
+        <v>304</v>
+      </c>
+      <c r="AC12">
+        <v>38.316775584223599</v>
+      </c>
+      <c r="AD12">
+        <v>363</v>
+      </c>
+      <c r="AE12">
+        <v>25.931053774460601</v>
       </c>
       <c r="AU12">
         <v>151</v>
